--- a/Desafio2/Solteiros/Solteiros.xlsx
+++ b/Desafio2/Solteiros/Solteiros.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="362">
   <si>
     <t>Nome</t>
   </si>
@@ -1142,11 +1142,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N283"/>
+  <dimension ref="A1:N281"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="31.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.76171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.24609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.20703125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="16.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.1328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="16.9921875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="13.08984375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="33.328125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -13512,94 +13528,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C282" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E282" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F282" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G282" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H282" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I282" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J282" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K282" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L282" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M282" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N282" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E283" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F283" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G283" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H283" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I283" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J283" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K283" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L283" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M283" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N283" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
